--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NKH.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NKH.xlsx
@@ -13,45 +13,20 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tên NCC là bắt buộc
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Tên NKH</t>
+    <t>Tên nhóm</t>
   </si>
   <si>
-    <t>Nhóm Khách hàng VIP</t>
+    <t>Khách hàng thân thiết</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +41,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -401,11 +369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +394,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>